--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355114.2501571577</v>
+        <v>-357686.0206774459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26.73524267227048</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>120.8597758647168</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>67.43480778854138</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>22.72229905843936</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>182.6481924107526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.6891980258242</v>
+        <v>357.1538087223713</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>243.5124525162227</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>244.9566890263934</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145.5346636008965</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>342.2900945196233</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>5.918693043520039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.37402966055299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>145.8985436303878</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>68.17501931584566</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>272.8976078885798</v>
+        <v>286.1844743892362</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.64725059288425</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016457</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>85.71023095289448</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>229.319471560892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>133.5893686009543</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>159.2661870898842</v>
       </c>
       <c r="V28" t="n">
-        <v>147.2606364488705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.54185816719604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>277.8947113923951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>13.37642554686322</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261737</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.740873408249</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.740873408249</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.475174801499</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>650.6869222032544</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>239.7010174136469</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>239.7010174136469</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872917</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2369.524153463452</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2115.943092727632</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1784.880205384061</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.880205384061</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.880205384061</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.740873408249</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.8936537153462</v>
+        <v>689.9034178578795</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>520.9672349299726</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>370.8505955176369</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>222.9375019352437</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234358</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1255.324248587133</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>1027.334697689116</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.5421185455859</v>
+        <v>871.5518826881192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.9105847575083</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251367</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>62.9111328033102</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664336</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394222</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.523854133143</v>
+        <v>2064.174362665547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.384522157331</v>
+        <v>1674.035030689735</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500115</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310616</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625335</v>
+        <v>638.0146769637274</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217538</v>
+        <v>1001.276695922948</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.3236459576</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.8214259065184</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1167.495465010423</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>912.8109768045357</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>912.8109768045357</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="X7" t="n">
-        <v>684.8214259065184</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.8214259065184</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>751.8401858057892</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>951.3749714814027</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>782.4387885534958</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>632.32214914116</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>484.4090555587669</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>337.5191080608565</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>169.8162714355755</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705156</v>
+        <v>1133.023436311642</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>1133.023436311642</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684175</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876768</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597699</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2104.263230450259</v>
+        <v>1755.431557602312</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244372</v>
+        <v>1500.747069396425</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207411</v>
+        <v>1211.329899359464</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309394</v>
+        <v>983.3403484614466</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179165</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614378</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179076</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1456.750023995219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>939.3433030602413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6142,55 +6142,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,16 +6546,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942652</v>
@@ -7558,16 +7558,16 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7597,19 +7597,19 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>35.91627445172492</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>45.44676101130733</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.7516311504045</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.8209453043253</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>139.2233771916924</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.93343655154953</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016435</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.4404537023667</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>13.28686650066436</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.184729589053</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>139.9994244361427</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>22.818171762936</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>92.12028678808281</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.9182872993599</v>
       </c>
       <c r="V28" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.70496293143179</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8.289762996849049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.70888054695396</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>152.1477127454056</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.309891502</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.309891502</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="L2" t="n">
-        <v>282501.3098915021</v>
-      </c>
       <c r="M2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,25 +26366,25 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>6.645328476224677e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403373</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77105.44197452917</v>
+        <v>77105.44197452886</v>
       </c>
       <c r="C4" t="n">
         <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744391</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26445,19 +26445,19 @@
         <v>8727.256391744337</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="O4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483774</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1033252.072055252</v>
+        <v>-1033507.941294662</v>
       </c>
       <c r="C6" t="n">
-        <v>58904.71003567062</v>
+        <v>58904.71003567107</v>
       </c>
       <c r="D6" t="n">
-        <v>-101110.752712327</v>
+        <v>-101110.7527123272</v>
       </c>
       <c r="E6" t="n">
-        <v>-152760.9381315043</v>
+        <v>-152795.67605694</v>
       </c>
       <c r="F6" t="n">
-        <v>172651.5236758506</v>
+        <v>172616.785750415</v>
       </c>
       <c r="G6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.7857504151</v>
       </c>
       <c r="H6" t="n">
-        <v>172651.5236758505</v>
+        <v>172616.785750415</v>
       </c>
       <c r="I6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.7857504149</v>
       </c>
       <c r="J6" t="n">
-        <v>5046.345865868279</v>
+        <v>5011.607940432645</v>
       </c>
       <c r="K6" t="n">
-        <v>172651.5236758507</v>
+        <v>172616.785750415</v>
       </c>
       <c r="L6" t="n">
-        <v>124357.55366766</v>
+        <v>124322.8157422244</v>
       </c>
       <c r="M6" t="n">
-        <v>87596.49574033897</v>
+        <v>87561.75781490325</v>
       </c>
       <c r="N6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.7857504151</v>
       </c>
       <c r="O6" t="n">
         <v>148054.6699501143</v>
       </c>
       <c r="P6" t="n">
-        <v>167482.3879437462</v>
+        <v>167482.3879437461</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>192.1776536868848</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>180.1587766976886</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>122.6987489644919</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>103.8748059258384</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.04464363765635</v>
+        <v>25.58003294110932</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42.71470160497793</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>41.56630931019762</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.1991780625841</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>68.63163113383013</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.8363218708007</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.2106236915418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>7.884182195994071e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168762</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940696</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642907</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,10 +34778,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637952</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091751</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>343.1271216491576</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>590.9487307432786</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000392</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308547</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977099</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295071</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962517</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782691</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
